--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49195.671972091</v>
+        <v>47034.29741661125</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23845934.64571013</v>
+        <v>23845934.64571015</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9134618.112059642</v>
+        <v>9134618.112059636</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4908534.088124981</v>
+        <v>4877771.767980245</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -722,10 +724,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>58.31056327198453</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>214.8159433336649</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>84.07047732702551</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -880,10 +882,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>403.4516858401796</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>314.3933937027337</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +989,7 @@
         <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>84.53123883647797</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
         <v>41.31829566194965</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>137.8173694338329</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>156.2681271316377</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>398.1689100001816</v>
       </c>
       <c r="X8" t="n">
-        <v>375.9790740437535</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>132.8964206967369</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,10 +1347,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1373,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>205.8837460791744</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>291.1046211681286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1582,10 +1584,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>140.8415206342685</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1610,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>46.68188763447793</v>
+        <v>172.8786103038458</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1774,13 +1776,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>103.7410503850547</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>217.8748142299687</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1853,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>4.196966311928198</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1901,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2.644785797102668</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>16.87089136023326</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2068,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>156.2681271316377</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>374.0142720497965</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>286.7869436198046</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2239,10 +2241,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2251,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>73.95594162749596</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,22 +2320,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>45.91568880648644</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>164.3277003308269</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2552,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>327.9183258711724</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>19.73825846477145</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
@@ -2573,7 +2575,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.13954148002296</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2779,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>113.7218216744503</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>26.823794458348</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>15.66455546561347</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
         <v>0.4126214791313976</v>
@@ -2843,16 +2845,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>49.1772265485036</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>34.71811217257828</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,10 +3015,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>174.8095987446686</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>155.5869679636097</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
@@ -3047,7 +3049,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3190,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>18.05677735225712</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>98.73120706589857</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3275,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>268.3727301458093</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
@@ -3284,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>63.7900887423119</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3433,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>35.34780583513505</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>3.139541480022953</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3506,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>171.0006148452722</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -3554,22 +3556,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>282.4358118508281</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3667,16 +3669,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>83.42661545872168</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3724,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>102.2146311366279</v>
       </c>
     </row>
     <row r="41">
@@ -3743,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>166.1718822362677</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3803,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>174.8095987446686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3898,10 +3900,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>105.6319392430749</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225712</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3977,19 +3979,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>8.032634771167768</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>83.18350266509924</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4071,7 +4073,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,25 +4137,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>141.3076780977018</v>
+        <v>23.21215624113697</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>462.52534286434</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="C2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="D2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4361,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W2" t="n">
-        <v>929.7110254252771</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="X2" t="n">
-        <v>870.8114665646866</v>
+        <v>251.3462593216046</v>
       </c>
       <c r="Y2" t="n">
-        <v>462.52534286434</v>
+        <v>34.36045797446834</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,22 +4397,22 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
         <v>1159.957753041174</v>
@@ -4462,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>859.7685167902448</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>859.7685167902448</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>693.8905239917675</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>524.1325202425048</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>347.4254662042611</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4516,22 +4518,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1418.750429333523</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.794921203953</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W4" t="n">
-        <v>859.7685167902448</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X4" t="n">
-        <v>859.7685167902448</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y4" t="n">
-        <v>859.7685167902448</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>462.2278875652606</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="C5" t="n">
-        <v>462.2278875652606</v>
+        <v>780.0944274125559</v>
       </c>
       <c r="D5" t="n">
-        <v>462.2278875652606</v>
+        <v>780.0944274125559</v>
       </c>
       <c r="E5" t="n">
-        <v>462.2278875652606</v>
+        <v>351.5127531498242</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4571,16 +4573,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P5" t="n">
         <v>1107.976466382457</v>
@@ -4592,25 +4594,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W5" t="n">
-        <v>1697.183430080417</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="X5" t="n">
-        <v>1278.040966659728</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="Y5" t="n">
-        <v>869.7548429593813</v>
+        <v>1208.676101675288</v>
       </c>
     </row>
     <row r="6">
@@ -4647,25 +4649,25 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>437.0247332457074</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>437.0247332457074</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>1697.183430080417</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
-        <v>1697.183430080417</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q6" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R6" t="n">
         <v>1697.183430080417</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>210.6507226398521</v>
+        <v>990.9896325459688</v>
       </c>
       <c r="C7" t="n">
-        <v>210.6507226398521</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D7" t="n">
-        <v>210.6507226398521</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H7" t="n">
         <v>33.94366860160834</v>
@@ -4726,19 +4728,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>269.215608100497</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
         <v>1528.990655216085</v>
@@ -4753,22 +4755,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="X7" t="n">
-        <v>368.4973157021125</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="Y7" t="n">
-        <v>210.6507226398521</v>
+        <v>1182.808251264956</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>891.1070171270717</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C8" t="n">
-        <v>891.1070171270717</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D8" t="n">
-        <v>462.52534286434</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E8" t="n">
         <v>33.94366860160834</v>
@@ -4805,19 +4807,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4832,22 +4834,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W8" t="n">
-        <v>1697.183430080417</v>
+        <v>453.0861320222976</v>
       </c>
       <c r="X8" t="n">
-        <v>1317.406587611979</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="Y8" t="n">
-        <v>1317.406587611979</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="9">
@@ -4860,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4869,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4881,16 +4883,16 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J9" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
         <v>1159.957753041174</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>514.6475351736976</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F10" t="n">
         <v>33.94366860160834</v>
@@ -4960,25 +4962,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
@@ -4993,19 +4995,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V10" t="n">
-        <v>885.9154747824084</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>1179.277579245164</v>
       </c>
       <c r="X10" t="n">
-        <v>368.4973157021125</v>
+        <v>933.8858245785766</v>
       </c>
       <c r="Y10" t="n">
-        <v>141.0776450162207</v>
+        <v>706.4661538926848</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>435.3414999783445</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="C11" t="n">
-        <v>435.3414999783445</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="D11" t="n">
-        <v>435.3414999783445</v>
+        <v>241.9070484795623</v>
       </c>
       <c r="E11" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F11" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G11" t="n">
         <v>33.94366860160834</v>
@@ -5039,25 +5041,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J11" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K11" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L11" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M11" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N11" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O11" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P11" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q11" t="n">
         <v>1528.02936532736</v>
@@ -5066,25 +5068,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S11" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T11" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U11" t="n">
-        <v>1134.24202645431</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V11" t="n">
-        <v>1134.24202645431</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W11" t="n">
-        <v>729.3865718653431</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="X11" t="n">
-        <v>729.3865718653431</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="Y11" t="n">
-        <v>435.3414999783445</v>
+        <v>670.4887227422939</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5126,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="L12" t="n">
-        <v>384.5656667282782</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M12" t="n">
-        <v>384.5656667282782</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N12" t="n">
-        <v>384.5656667282782</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O12" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P12" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q12" t="n">
         <v>1580.010651986078</v>
@@ -5173,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.94366860160834</v>
+        <v>372.3833729168607</v>
       </c>
       <c r="C13" t="n">
-        <v>33.94366860160834</v>
+        <v>199.8216614000857</v>
       </c>
       <c r="D13" t="n">
         <v>33.94366860160834</v>
@@ -5230,19 +5232,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U13" t="n">
-        <v>1172.870982911978</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V13" t="n">
-        <v>885.9154747824084</v>
+        <v>1309.039821402036</v>
       </c>
       <c r="W13" t="n">
-        <v>613.8890703687</v>
+        <v>1037.013416988327</v>
       </c>
       <c r="X13" t="n">
-        <v>368.4973157021125</v>
+        <v>791.6216623217397</v>
       </c>
       <c r="Y13" t="n">
-        <v>141.0776450162207</v>
+        <v>564.2019916358479</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>724.4716545351282</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C14" t="n">
-        <v>724.4716545351282</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="D14" t="n">
-        <v>724.4716545351282</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E14" t="n">
-        <v>724.4716545351282</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F14" t="n">
-        <v>724.4716545351282</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G14" t="n">
         <v>323.0738231583921</v>
@@ -5276,52 +5278,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J14" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K14" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="L14" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="M14" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="N14" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="K14" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="L14" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="M14" t="n">
-        <v>687.9235674375537</v>
-      </c>
-      <c r="N14" t="n">
-        <v>687.9235674375537</v>
-      </c>
       <c r="O14" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P14" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q14" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R14" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T14" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U14" t="n">
-        <v>1134.24202645431</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V14" t="n">
-        <v>771.6250763881362</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W14" t="n">
-        <v>724.4716545351282</v>
+        <v>1159.94162112147</v>
       </c>
       <c r="X14" t="n">
-        <v>724.4716545351282</v>
+        <v>1159.94162112147</v>
       </c>
       <c r="Y14" t="n">
-        <v>724.4716545351282</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5360,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K15" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L15" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M15" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N15" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O15" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P15" t="n">
         <v>1159.957753041174</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>858.7506050139928</v>
+        <v>646.930316449007</v>
       </c>
       <c r="C16" t="n">
-        <v>686.1888934972177</v>
+        <v>474.368604932232</v>
       </c>
       <c r="D16" t="n">
-        <v>520.3109006987404</v>
+        <v>308.4906121337547</v>
       </c>
       <c r="E16" t="n">
-        <v>350.5528969494776</v>
+        <v>138.7326083844919</v>
       </c>
       <c r="F16" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G16" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H16" t="n">
         <v>33.94366860160834</v>
@@ -5440,16 +5442,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L16" t="n">
-        <v>452.1535503695694</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M16" t="n">
-        <v>872.2064493144727</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N16" t="n">
-        <v>930.0072868842942</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O16" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P16" t="n">
         <v>1697.183430080417</v>
@@ -5458,28 +5460,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R16" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S16" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T16" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U16" t="n">
-        <v>1050.56922373298</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V16" t="n">
-        <v>1050.56922373298</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W16" t="n">
-        <v>1050.56922373298</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="X16" t="n">
-        <v>1050.56922373298</v>
+        <v>646.930316449007</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.56922373298</v>
+        <v>646.930316449007</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38.59981788550692</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="C17" t="n">
-        <v>38.59981788550692</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="D17" t="n">
-        <v>38.59981788550692</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="E17" t="n">
-        <v>38.59981788550692</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F17" t="n">
-        <v>38.59981788550692</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G17" t="n">
         <v>34.36045797446834</v>
@@ -5519,19 +5521,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="L17" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M17" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N17" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O17" t="n">
+        <v>874.0494664914149</v>
+      </c>
+      <c r="P17" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q17" t="n">
         <v>1528.02936532736</v>
@@ -5549,16 +5551,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V17" t="n">
-        <v>1697.183430080417</v>
+        <v>1694.511929275263</v>
       </c>
       <c r="W17" t="n">
-        <v>1292.327975491451</v>
+        <v>1289.656474686296</v>
       </c>
       <c r="X17" t="n">
-        <v>873.1855120707613</v>
+        <v>870.5140112656072</v>
       </c>
       <c r="Y17" t="n">
-        <v>464.8993883704147</v>
+        <v>462.2278875652606</v>
       </c>
     </row>
     <row r="18">
@@ -5571,7 +5573,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C18" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D18" t="n">
         <v>338.5686635760967</v>
@@ -5580,34 +5582,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F18" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G18" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H18" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I18" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J18" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K18" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M18" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N18" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O18" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P18" t="n">
         <v>1159.957753041174</v>
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>227.6920270441282</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C19" t="n">
         <v>210.6507226398521</v>
@@ -5704,19 +5706,19 @@
         <v>1451.303983658873</v>
       </c>
       <c r="U19" t="n">
-        <v>1451.303983658873</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.348475529303</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W19" t="n">
-        <v>892.3220711155946</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X19" t="n">
-        <v>646.930316449007</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y19" t="n">
-        <v>419.5106457631153</v>
+        <v>210.6507226398521</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1650.358373569249</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C20" t="n">
-        <v>1212.215900752673</v>
+        <v>1319.391236090724</v>
       </c>
       <c r="D20" t="n">
-        <v>776.3061159271172</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="E20" t="n">
-        <v>342.5313710854123</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F20" t="n">
-        <v>342.5313710854123</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G20" t="n">
-        <v>342.5313710854123</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862856</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>1149.495958523325</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>2586.408952615265</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>2366.341725488303</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U20" t="n">
-        <v>2366.341725488303</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V20" t="n">
-        <v>2076.657944054157</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W20" t="n">
-        <v>2076.657944054157</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X20" t="n">
-        <v>2076.657944054157</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y20" t="n">
-        <v>2076.657944054157</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D21" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E21" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>79.46488968908616</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J21" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>404.0232146552985</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L21" t="n">
-        <v>404.0232146552985</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M21" t="n">
-        <v>404.0232146552985</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N21" t="n">
-        <v>404.0232146552985</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O21" t="n">
-        <v>404.0232146552985</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P21" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q21" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R21" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S21" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T21" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U21" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V21" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W21" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X21" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y21" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>903.8972536055599</v>
+        <v>455.1116977300199</v>
       </c>
       <c r="C22" t="n">
-        <v>731.3355420887848</v>
+        <v>455.1116977300199</v>
       </c>
       <c r="D22" t="n">
-        <v>565.4575492903075</v>
+        <v>455.1116977300199</v>
       </c>
       <c r="E22" t="n">
-        <v>395.6995455410447</v>
+        <v>285.3536939807572</v>
       </c>
       <c r="F22" t="n">
-        <v>218.9924915028009</v>
+        <v>108.6466399425134</v>
       </c>
       <c r="G22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9809016933184</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K22" t="n">
-        <v>414.739356264454</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L22" t="n">
-        <v>832.9492380324151</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M22" t="n">
-        <v>1292.433105213328</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370973</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O22" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P22" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>2651.821657388744</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T22" t="n">
-        <v>2405.942210967199</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U22" t="n">
-        <v>2127.509210220304</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V22" t="n">
-        <v>1840.553702090735</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W22" t="n">
-        <v>1568.527297677026</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="X22" t="n">
-        <v>1323.135543010439</v>
+        <v>646.930316449007</v>
       </c>
       <c r="Y22" t="n">
-        <v>1095.715872324547</v>
+        <v>646.930316449007</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1789.095648603258</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C23" t="n">
-        <v>1350.953175786681</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D23" t="n">
-        <v>915.0433909611256</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E23" t="n">
-        <v>481.2686461194208</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F23" t="n">
-        <v>53.40121652862856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G23" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H23" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J23" t="n">
         <v>488.6559039815464</v>
@@ -5993,46 +5995,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L23" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M23" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N23" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O23" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R23" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T23" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U23" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V23" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W23" t="n">
-        <v>2623.681342788512</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="X23" t="n">
-        <v>2623.681342788512</v>
+        <v>1578.514896647403</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.395219088166</v>
+        <v>1170.228772947056</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C24" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D24" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E24" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F24" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G24" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I24" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J24" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>2018.283117621067</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L24" t="n">
-        <v>2018.283117621067</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M24" t="n">
-        <v>2018.283117621067</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N24" t="n">
-        <v>2018.283117621067</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O24" t="n">
-        <v>2018.283117621067</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P24" t="n">
-        <v>2018.283117621067</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q24" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R24" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S24" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T24" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U24" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V24" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W24" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X24" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y24" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="25">
@@ -6136,13 +6138,13 @@
         <v>218.9924915028009</v>
       </c>
       <c r="G25" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J25" t="n">
         <v>139.9809016933184</v>
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>764.2836266479088</v>
+        <v>1075.159834655252</v>
       </c>
       <c r="C26" t="n">
-        <v>764.2836266479088</v>
+        <v>1075.159834655252</v>
       </c>
       <c r="D26" t="n">
-        <v>764.2836266479088</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E26" t="n">
-        <v>764.2836266479088</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F26" t="n">
-        <v>744.3459918350084</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G26" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H26" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J26" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K26" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L26" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M26" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N26" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O26" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S26" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T26" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U26" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V26" t="n">
-        <v>2003.72477542213</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W26" t="n">
-        <v>1598.869320833163</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X26" t="n">
-        <v>1598.869320833163</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y26" t="n">
-        <v>1190.583197132817</v>
+        <v>1075.159834655252</v>
       </c>
     </row>
     <row r="27">
@@ -6297,13 +6299,13 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I27" t="n">
-        <v>79.46488968908616</v>
+        <v>73.33088177303142</v>
       </c>
       <c r="J27" t="n">
-        <v>404.0232146552985</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="K27" t="n">
         <v>1058.729261281022</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C28" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D28" t="n">
-        <v>403.0375283363603</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E28" t="n">
-        <v>233.2795245870976</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F28" t="n">
-        <v>56.57247054885377</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G28" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H28" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J28" t="n">
         <v>139.9809016933184</v>
@@ -6415,19 +6417,19 @@
         <v>2243.522190013252</v>
       </c>
       <c r="U28" t="n">
-        <v>1965.089189266357</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V28" t="n">
-        <v>1678.133681136788</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W28" t="n">
-        <v>1406.107276723079</v>
+        <v>1684.540277469974</v>
       </c>
       <c r="X28" t="n">
-        <v>1160.715522056492</v>
+        <v>1439.148522803386</v>
       </c>
       <c r="Y28" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1332.680795009321</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C29" t="n">
-        <v>1332.680795009321</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D29" t="n">
-        <v>1316.858011710722</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E29" t="n">
-        <v>883.0832668690169</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F29" t="n">
-        <v>455.2158372782247</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G29" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H29" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J29" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K29" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="L29" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M29" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N29" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O29" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6491,22 +6493,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U29" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="V29" t="n">
-        <v>2586.408952615265</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W29" t="n">
-        <v>2586.408952615265</v>
+        <v>1598.869320833164</v>
       </c>
       <c r="X29" t="n">
-        <v>2167.266489194576</v>
+        <v>1179.726857412474</v>
       </c>
       <c r="Y29" t="n">
-        <v>1758.980365494229</v>
+        <v>771.4407337121276</v>
       </c>
     </row>
     <row r="30">
@@ -6534,7 +6536,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I30" t="n">
         <v>79.46488968908616</v>
@@ -6616,22 +6618,22 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J31" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K31" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L31" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M31" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N31" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O31" t="n">
         <v>2154.361157596754</v>
@@ -6646,25 +6648,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S31" t="n">
-        <v>2634.992026257106</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T31" t="n">
-        <v>2389.112579835562</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U31" t="n">
-        <v>2110.679579088667</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V31" t="n">
-        <v>1823.724070959097</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W31" t="n">
-        <v>1551.697666545389</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X31" t="n">
-        <v>1551.697666545389</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y31" t="n">
-        <v>1324.277995859497</v>
+        <v>1182.13334335112</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>920.5045547294905</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="C32" t="n">
-        <v>920.5045547294905</v>
+        <v>901.504545333604</v>
       </c>
       <c r="D32" t="n">
-        <v>920.5045547294905</v>
+        <v>901.504545333604</v>
       </c>
       <c r="E32" t="n">
-        <v>743.9292024621484</v>
+        <v>901.504545333604</v>
       </c>
       <c r="F32" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G32" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J32" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K32" t="n">
-        <v>632.7278666362198</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L32" t="n">
-        <v>632.7278666362198</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M32" t="n">
-        <v>632.7278666362198</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N32" t="n">
-        <v>632.7278666362198</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O32" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6728,22 +6730,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T32" t="n">
-        <v>2366.341725488303</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U32" t="n">
-        <v>2107.11942280532</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V32" t="n">
-        <v>1744.502472739146</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W32" t="n">
-        <v>1339.64701815018</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X32" t="n">
-        <v>920.5045547294905</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="Y32" t="n">
-        <v>920.5045547294905</v>
+        <v>1339.647018150181</v>
       </c>
     </row>
     <row r="33">
@@ -6771,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6832,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.1364226482438</v>
+        <v>800.9901093678603</v>
       </c>
       <c r="C34" t="n">
-        <v>749.5747111314687</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="D34" t="n">
-        <v>583.6967183329914</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E34" t="n">
-        <v>413.9387145837287</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F34" t="n">
-        <v>237.2316605454849</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G34" t="n">
-        <v>71.64038557131252</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H34" t="n">
-        <v>71.64038557131252</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J34" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K34" t="n">
-        <v>414.7393562644539</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L34" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M34" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N34" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O34" t="n">
         <v>2154.361157596754</v>
@@ -6880,28 +6882,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R34" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S34" t="n">
-        <v>2670.060826431428</v>
+        <v>2548.914513151044</v>
       </c>
       <c r="T34" t="n">
-        <v>2424.181380009883</v>
+        <v>2303.035066729499</v>
       </c>
       <c r="U34" t="n">
-        <v>2145.748379262988</v>
+        <v>2024.602065982605</v>
       </c>
       <c r="V34" t="n">
-        <v>1858.792871133419</v>
+        <v>1737.646557853035</v>
       </c>
       <c r="W34" t="n">
-        <v>1586.76646671971</v>
+        <v>1465.620153439327</v>
       </c>
       <c r="X34" t="n">
-        <v>1341.374712053123</v>
+        <v>1220.228398772739</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.955041367231</v>
+        <v>992.8087280868474</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1015.012768265996</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C35" t="n">
-        <v>1015.012768265996</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D35" t="n">
-        <v>1015.012768265996</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E35" t="n">
-        <v>1015.012768265996</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F35" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G35" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J35" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K35" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L35" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M35" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N35" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O35" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P35" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q35" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2670.060826431428</v>
+        <v>2605.626393358386</v>
       </c>
       <c r="T35" t="n">
-        <v>2449.993599304466</v>
+        <v>2605.626393358386</v>
       </c>
       <c r="U35" t="n">
-        <v>2190.771296621483</v>
+        <v>2346.404090675403</v>
       </c>
       <c r="V35" t="n">
-        <v>1828.15434655531</v>
+        <v>1983.78714060923</v>
       </c>
       <c r="W35" t="n">
-        <v>1423.298891966343</v>
+        <v>1578.931686020263</v>
       </c>
       <c r="X35" t="n">
-        <v>1423.298891966343</v>
+        <v>1578.931686020263</v>
       </c>
       <c r="Y35" t="n">
-        <v>1015.012768265996</v>
+        <v>1170.645562319916</v>
       </c>
     </row>
     <row r="36">
@@ -7008,7 +7010,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I36" t="n">
         <v>79.46488968908616</v>
@@ -7069,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>762.8950539462403</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C37" t="n">
-        <v>590.3333424294652</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D37" t="n">
-        <v>424.4553496309879</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E37" t="n">
-        <v>254.6973458817252</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F37" t="n">
-        <v>218.9924915028009</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G37" t="n">
-        <v>53.40121652862856</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J37" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K37" t="n">
-        <v>414.7393562644539</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L37" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M37" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N37" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O37" t="n">
         <v>2154.361157596754</v>
@@ -7117,28 +7119,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R37" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S37" t="n">
-        <v>2510.819457729424</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U37" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V37" t="n">
-        <v>1699.551502431415</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W37" t="n">
-        <v>1427.525098017707</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X37" t="n">
-        <v>1182.133343351119</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y37" t="n">
-        <v>954.7136726652275</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2041.897951093061</v>
+        <v>917.0738856181116</v>
       </c>
       <c r="C38" t="n">
-        <v>2041.897951093061</v>
+        <v>917.0738856181116</v>
       </c>
       <c r="D38" t="n">
-        <v>1605.988166267505</v>
+        <v>917.0738856181116</v>
       </c>
       <c r="E38" t="n">
-        <v>1172.213421425801</v>
+        <v>917.0738856181116</v>
       </c>
       <c r="F38" t="n">
         <v>744.3459918350084</v>
@@ -7166,16 +7168,16 @@
         <v>342.9481604582723</v>
       </c>
       <c r="H38" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J38" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7278666362198</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="L38" t="n">
         <v>1293.567921177998</v>
@@ -7187,13 +7189,13 @@
         <v>1293.567921177998</v>
       </c>
       <c r="O38" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
@@ -7202,22 +7204,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T38" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U38" t="n">
-        <v>2327.186649932281</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V38" t="n">
-        <v>2327.186649932281</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W38" t="n">
-        <v>2041.897951093061</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="X38" t="n">
-        <v>2041.897951093061</v>
+        <v>1325.360009318458</v>
       </c>
       <c r="Y38" t="n">
-        <v>2041.897951093061</v>
+        <v>917.0738856181116</v>
       </c>
     </row>
     <row r="39">
@@ -7245,7 +7247,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I39" t="n">
         <v>79.46488968908616</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C40" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D40" t="n">
-        <v>403.0375283363603</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E40" t="n">
-        <v>318.768219792197</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F40" t="n">
-        <v>142.0611657539532</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G40" t="n">
-        <v>142.0611657539532</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H40" t="n">
         <v>142.0611657539532</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J40" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933188</v>
       </c>
       <c r="K40" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644543</v>
       </c>
       <c r="L40" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324155</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
@@ -7354,28 +7356,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R40" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U40" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V40" t="n">
-        <v>1678.133681136788</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W40" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X40" t="n">
-        <v>1160.715522056492</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="Y40" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>743.9292024621484</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="C41" t="n">
-        <v>743.9292024621484</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="D41" t="n">
-        <v>743.9292024621484</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="E41" t="n">
-        <v>743.9292024621484</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F41" t="n">
         <v>743.9292024621484</v>
@@ -7403,34 +7405,34 @@
         <v>342.5313710854123</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J41" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K41" t="n">
-        <v>53.40121652862856</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="L41" t="n">
-        <v>714.2412710704069</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="M41" t="n">
-        <v>714.2412710704069</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="N41" t="n">
-        <v>1375.081325612185</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="O41" t="n">
-        <v>2035.921380153963</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P41" t="n">
-        <v>2035.921380153963</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q41" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
@@ -7439,22 +7441,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T41" t="n">
-        <v>2366.341725488303</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U41" t="n">
-        <v>2107.11942280532</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V41" t="n">
-        <v>1744.502472739146</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W41" t="n">
-        <v>1339.64701815018</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X41" t="n">
-        <v>920.5045547294905</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="Y41" t="n">
-        <v>743.9292024621484</v>
+        <v>1339.647018150181</v>
       </c>
     </row>
     <row r="42">
@@ -7482,16 +7484,16 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I42" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J42" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K42" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L42" t="n">
         <v>1058.729261281022</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.1364226482438</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C43" t="n">
-        <v>749.5747111314687</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="D43" t="n">
-        <v>583.6967183329914</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E43" t="n">
-        <v>413.9387145837287</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F43" t="n">
-        <v>237.2316605454849</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G43" t="n">
-        <v>71.64038557131252</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H43" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J43" t="n">
         <v>139.9809016933184</v>
@@ -7579,7 +7581,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N43" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O43" t="n">
         <v>2154.361157596754</v>
@@ -7591,28 +7593,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R43" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S43" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T43" t="n">
-        <v>2424.181380009883</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U43" t="n">
-        <v>2145.748379262988</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V43" t="n">
-        <v>1858.792871133419</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W43" t="n">
-        <v>1586.76646671971</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X43" t="n">
-        <v>1341.374712053123</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.955041367231</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>443.4552724744735</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C44" t="n">
-        <v>443.4552724744735</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D44" t="n">
-        <v>435.3414999783445</v>
+        <v>137.4249565943854</v>
       </c>
       <c r="E44" t="n">
-        <v>435.3414999783445</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="F44" t="n">
-        <v>435.3414999783445</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I44" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J44" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K44" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L44" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="M44" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="N44" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O44" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q44" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V44" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W44" t="n">
-        <v>1697.183430080417</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X44" t="n">
-        <v>1278.040966659728</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y44" t="n">
-        <v>869.7548429593813</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C45" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D45" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E45" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F45" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539589</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I45" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J45" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K45" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L45" t="n">
-        <v>739.9048540962709</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P45" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q45" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R45" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S45" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T45" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U45" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V45" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W45" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X45" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y45" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>33.94366860160834</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C46" t="n">
-        <v>33.94366860160834</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D46" t="n">
-        <v>33.94366860160834</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E46" t="n">
-        <v>33.94366860160834</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F46" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G46" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H46" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I46" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J46" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K46" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L46" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M46" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O46" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P46" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R46" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>1697.183430080417</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T46" t="n">
-        <v>1451.303983658873</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U46" t="n">
-        <v>1172.870982911978</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V46" t="n">
-        <v>885.9154747824084</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W46" t="n">
-        <v>613.8890703687</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X46" t="n">
-        <v>368.4973157021125</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.7622873205955</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8219,19 +8221,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -8295,28 +8297,28 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>52.98895607821123</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O6" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,22 +8376,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8453,7 +8455,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P8" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8529,19 +8531,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8608,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P11" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8772,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P12" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q12" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K14" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P14" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,10 +9008,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -9088,19 +9090,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M16" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N16" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N16" t="n">
-        <v>58.38468441396105</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9167,22 +9169,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P17" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M17" t="n">
+      <c r="Q17" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N17" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L20" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9416,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9480,10 +9482,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9565,13 +9567,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9641,7 +9643,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9717,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q24" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9872,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>20.13097499434632</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10267,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,13 +10360,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10504,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.515206607857</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10741,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>585.1784344521124</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10978,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>316.3899266744751</v>
       </c>
       <c r="L41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
-        <v>469.682203560008</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11227,7 +11229,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11376,13 +11378,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>358.9284720888815</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22547,7 +22549,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
@@ -22565,7 +22567,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,7 +22603,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>356.6404755144979</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>189.3873191296782</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>79.86488489740509</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,7 +22758,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22768,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.58488893987914</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>109.1953615921506</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22802,7 +22804,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -22844,13 +22846,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22939,25 +22941,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>33.0187249677744</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22993,22 +22995,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>68.8773468473951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -23072,19 +23074,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>2.63799004289541</v>
       </c>
       <c r="X8" t="n">
-        <v>38.97196474272886</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23176,19 +23178,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>37.93967370487044</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -23233,10 +23235,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23261,16 +23263,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>223.5532513141134</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>113.0986412952145</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -23470,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>143.2444324140053</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23498,7 +23500,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -23507,7 +23509,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>354.1250124085991</v>
+        <v>227.9282897392312</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>71.1989331128066</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.77385650945703</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23741,10 +23743,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>393.1868867510406</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -23789,7 +23791,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>356.3459947684091</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>153.9652030413741</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>68.8773468473951</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>59.74677603861437</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>72.20383694570711</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -24127,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>89.97942059693465</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24175,13 +24177,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24206,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0.4126214791313976</v>
@@ -24254,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>354.8912112365906</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>250.6233384556555</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24440,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>103.6323611061275</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>403.8504968301129</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
@@ -24506,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>111.4236523045825</v>
       </c>
     </row>
     <row r="29">
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>395.2127803217107</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>415.8861315116864</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24731,16 +24733,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>140.7232059832936</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>122.930842842405</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24917,16 +24919,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>254.6273986486191</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>268.0017873312746</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24980,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>69.71657238081428</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>58.91774794908473</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -25163,7 +25165,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>155.216025149075</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>19.02526633568946</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>139.5921776627263</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>135.3636110865063</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25394,13 +25396,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>252.5881404496121</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25442,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>118.3710881922489</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25555,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>84.63380825304843</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>122.9308428424049</v>
       </c>
     </row>
     <row r="41">
@@ -25631,13 +25633,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>265.3788047410322</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.3936637186745</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>58.58727362741766</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -25865,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>423.5180522061322</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>346.2534947281885</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -25925,7 +25927,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>83.83779588133098</v>
+        <v>201.9333177378958</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355329.0741116018</v>
+        <v>355329.0741116017</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355329.0741116018</v>
+        <v>355329.0741116017</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355329.0741116017</v>
+        <v>355329.0741116018</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>499862.0597480321</v>
+        <v>355329.0741116017</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>499862.0597480321</v>
+        <v>499862.0597480322</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>499862.0597480321</v>
+        <v>499862.0597480322</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>499862.0597480321</v>
+        <v>499862.0597480322</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355329.0741116017</v>
+        <v>499862.0597480321</v>
       </c>
     </row>
   </sheetData>
@@ -26329,31 +26331,31 @@
         <v>102171.9869277625</v>
       </c>
       <c r="H2" t="n">
+        <v>102171.9869277625</v>
+      </c>
+      <c r="I2" t="n">
+        <v>143731.2720946098</v>
+      </c>
+      <c r="J2" t="n">
         <v>143731.2720946097</v>
       </c>
-      <c r="I2" t="n">
-        <v>143731.2720946097</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>143731.2720946098</v>
       </c>
-      <c r="K2" t="n">
-        <v>143731.2720946097</v>
-      </c>
       <c r="L2" t="n">
-        <v>143731.2720946097</v>
+        <v>143731.2720946098</v>
       </c>
       <c r="M2" t="n">
-        <v>143731.2720946097</v>
+        <v>143731.2720946098</v>
       </c>
       <c r="N2" t="n">
-        <v>143731.2720946097</v>
+        <v>143731.2720946098</v>
       </c>
       <c r="O2" t="n">
-        <v>143731.2720946097</v>
+        <v>143731.2720946098</v>
       </c>
       <c r="P2" t="n">
-        <v>102171.9869277625</v>
+        <v>143731.2720946098</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>64677.13252876429</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37160.80836782805</v>
+        <v>37160.80836782806</v>
       </c>
       <c r="C4" t="n">
         <v>37160.80836782805</v>
@@ -26433,31 +26435,31 @@
         <v>37160.80836782805</v>
       </c>
       <c r="H4" t="n">
-        <v>52276.26886172088</v>
+        <v>37160.80836782805</v>
       </c>
       <c r="I4" t="n">
         <v>52276.26886172088</v>
       </c>
       <c r="J4" t="n">
-        <v>52276.26886172088</v>
+        <v>52276.26886172089</v>
       </c>
       <c r="K4" t="n">
         <v>52276.26886172088</v>
       </c>
       <c r="L4" t="n">
-        <v>52276.26886172088</v>
+        <v>52276.26886172089</v>
       </c>
       <c r="M4" t="n">
-        <v>52276.26886172088</v>
+        <v>52276.2688617209</v>
       </c>
       <c r="N4" t="n">
-        <v>52276.26886172088</v>
+        <v>52276.26886172089</v>
       </c>
       <c r="O4" t="n">
-        <v>52276.26886172088</v>
+        <v>52276.2688617209</v>
       </c>
       <c r="P4" t="n">
-        <v>37160.80836782806</v>
+        <v>52276.2688617209</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26487,31 @@
         <v>25797.18813722234</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.9245617577</v>
+        <v>40584.92456175771</v>
       </c>
       <c r="P5" t="n">
-        <v>25797.18813722234</v>
+        <v>40584.92456175771</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136604.9102369978</v>
+        <v>-136604.9102369979</v>
       </c>
       <c r="C6" t="n">
         <v>5586.390422712102</v>
       </c>
       <c r="D6" t="n">
-        <v>5586.390422712102</v>
+        <v>5586.390422712117</v>
       </c>
       <c r="E6" t="n">
-        <v>39213.9904227121</v>
+        <v>39213.99042271212</v>
       </c>
       <c r="F6" t="n">
         <v>39213.99042271211</v>
@@ -26537,31 +26539,31 @@
         <v>39213.9904227121</v>
       </c>
       <c r="H6" t="n">
-        <v>-14752.69068688633</v>
+        <v>39213.9904227121</v>
       </c>
       <c r="I6" t="n">
-        <v>50870.07867113114</v>
+        <v>-13807.05385763311</v>
       </c>
       <c r="J6" t="n">
-        <v>-60144.38667385901</v>
+        <v>-60144.38667385903</v>
       </c>
       <c r="K6" t="n">
-        <v>50870.07867113116</v>
+        <v>50870.07867113117</v>
       </c>
       <c r="L6" t="n">
-        <v>50870.07867113113</v>
+        <v>50870.07867113117</v>
       </c>
       <c r="M6" t="n">
-        <v>50870.07867113116</v>
+        <v>50870.07867113117</v>
       </c>
       <c r="N6" t="n">
-        <v>50870.07867113113</v>
+        <v>50870.07867113117</v>
       </c>
       <c r="O6" t="n">
-        <v>50870.07867113112</v>
+        <v>50870.07867113117</v>
       </c>
       <c r="P6" t="n">
-        <v>39213.99042271209</v>
+        <v>50870.07867113117</v>
       </c>
     </row>
   </sheetData>
@@ -26805,31 +26807,31 @@
         <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="I4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>243.2193490877527</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>407.152590549595</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34939,19 +34941,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -35015,28 +35017,28 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>52.98895607821123</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O6" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,7 +35175,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P8" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35249,19 +35251,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P11" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697544</v>
@@ -35492,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P12" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q12" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K14" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P14" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q14" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,10 +35728,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,10 +35740,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>424.2958575201044</v>
@@ -35808,19 +35810,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M16" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N16" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N16" t="n">
-        <v>58.38468441396105</v>
-      </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35887,22 +35889,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P17" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M17" t="n">
+      <c r="Q17" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N17" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697544</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
-        <v>288.7962490401609</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L20" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36136,10 +36138,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697544</v>
@@ -36200,10 +36202,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,16 +36287,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36361,7 +36363,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36370,10 +36372,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36434,10 +36436,10 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q24" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36592,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L26" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>20.13097499434632</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36844,10 +36846,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P29" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -36996,13 +36998,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37078,13 +37080,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="O32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P32" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37318,16 +37320,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>667.515206607857</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="P35" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>585.1784344521124</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="L38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908102</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37707,13 +37709,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>316.3899266744751</v>
       </c>
       <c r="L41" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078567</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q41" t="n">
-        <v>469.682203560008</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37947,10 +37949,10 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956003</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38029,13 +38031,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>236.2898988798406</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P44" t="n">
-        <v>424.2958575201044</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q44" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697544</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>358.9284720888815</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47034.29741661125</v>
+        <v>41535.17252553307</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23845934.64571015</v>
+        <v>23845934.64571014</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9134618.112059636</v>
+        <v>9134618.112059643</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>57.32582788869902</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>214.8159433336649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.0626366504663</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>126.2081354080962</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -901,13 +901,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>291.6115384509264</v>
       </c>
       <c r="F5" t="n">
-        <v>314.3933937027337</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>137.8173694338329</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1068,10 +1068,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>8.206774724967362</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>373.3071698245765</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>398.1689100001816</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1293,16 +1293,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>132.8964206967369</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>137.8963981569085</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>205.8837460791744</v>
+        <v>320.4517931110355</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>140.8415206342685</v>
+        <v>152.9189507365545</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>38.92507044044334</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>172.8786103038458</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>103.7410503850547</v>
+        <v>152.355512532834</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>2.644785797102668</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>208.1008596430932</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>263.2006974074938</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>156.2681271316377</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>374.0142720497965</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>46.68188763447793</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>73.95594162749596</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>236.4338428543271</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>34.75529100421603</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>164.3277003308269</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>149.7442555484472</v>
       </c>
       <c r="D26" t="n">
-        <v>327.9183258711724</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2623,7 +2623,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2733,7 +2733,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>254.0931201069078</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.7218216744503</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>26.823794458348</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>338.4166375478468</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>49.1772265485036</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>155.5869679636097</v>
+        <v>141.8554506993349</v>
       </c>
       <c r="G32" t="n">
         <v>397.3838530629687</v>
@@ -3049,7 +3049,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>98.73120706589857</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>155.5869679636088</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.7900887423119</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3435,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>39.57637241135463</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>3.139541480022953</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>171.0006148452722</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>64.31307662928364</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>94.21878984361676</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3726,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>102.2146311366279</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3745,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>166.1718822362677</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>185.1447535886767</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>105.6319392430749</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3918,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>35.75633396116248</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>83.18350266509924</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>185.557375067808</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>161.7725533806629</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>23.21215624113697</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34.36045797446834</v>
+        <v>782.3765311903798</v>
       </c>
       <c r="C2" t="n">
-        <v>34.36045797446834</v>
+        <v>782.3765311903798</v>
       </c>
       <c r="D2" t="n">
-        <v>34.36045797446834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E2" t="n">
-        <v>34.36045797446834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>437.0247332457074</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>857.0776321906106</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M2" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N2" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1075.344177331261</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>670.4887227422939</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3462593216046</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="Y2" t="n">
-        <v>34.36045797446834</v>
+        <v>1208.676101675288</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94366860160834</v>
+        <v>206.5053801183834</v>
       </c>
       <c r="C4" t="n">
         <v>33.94366860160834</v>
@@ -4488,52 +4488,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>1143.161828603558</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>871.1354241898498</v>
       </c>
       <c r="X4" t="n">
-        <v>368.4973157021125</v>
+        <v>625.7436695232623</v>
       </c>
       <c r="Y4" t="n">
-        <v>141.0776450162207</v>
+        <v>398.3239988373705</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1208.676101675288</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="C5" t="n">
-        <v>780.0944274125559</v>
+        <v>1184.949882001523</v>
       </c>
       <c r="D5" t="n">
-        <v>780.0944274125559</v>
+        <v>756.3682077387909</v>
       </c>
       <c r="E5" t="n">
-        <v>351.5127531498242</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F5" t="n">
         <v>33.94366860160834</v>
@@ -4570,19 +4570,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L5" t="n">
         <v>687.9235674375537</v>
       </c>
       <c r="M5" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N5" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P5" t="n">
         <v>1107.976466382457</v>
@@ -4606,13 +4606,13 @@
         <v>1613.531556264254</v>
       </c>
       <c r="W5" t="n">
-        <v>1208.676101675288</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="X5" t="n">
-        <v>1208.676101675288</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="Y5" t="n">
-        <v>1208.676101675288</v>
+        <v>1613.531556264254</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4634,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4649,19 +4649,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>990.9896325459688</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H7" t="n">
         <v>33.94366860160834</v>
@@ -4731,13 +4731,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4755,22 +4755,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1443.014312219512</v>
       </c>
       <c r="V7" t="n">
-        <v>1410.227921950848</v>
+        <v>1156.058804089942</v>
       </c>
       <c r="W7" t="n">
-        <v>1410.227921950848</v>
+        <v>1156.058804089942</v>
       </c>
       <c r="X7" t="n">
-        <v>1410.227921950848</v>
+        <v>910.6670494233545</v>
       </c>
       <c r="Y7" t="n">
-        <v>1182.808251264956</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.94366860160834</v>
+        <v>1320.105480762663</v>
       </c>
       <c r="C8" t="n">
-        <v>33.94366860160834</v>
+        <v>891.5238064999317</v>
       </c>
       <c r="D8" t="n">
-        <v>33.94366860160834</v>
+        <v>462.9421322372</v>
       </c>
       <c r="E8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4807,19 +4807,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4834,22 +4834,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T8" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U8" t="n">
-        <v>1217.893900270473</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V8" t="n">
-        <v>855.2769502042993</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W8" t="n">
-        <v>453.0861320222976</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X8" t="n">
-        <v>33.94366860160834</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y8" t="n">
-        <v>33.94366860160834</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="9">
@@ -4889,16 +4889,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>514.6475351736976</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C10" t="n">
-        <v>380.4087263891149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4087263891149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F10" t="n">
         <v>33.94366860160834</v>
@@ -4962,19 +4962,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L10" t="n">
-        <v>761.43086230084</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M10" t="n">
-        <v>1181.483761245743</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O10" t="n">
         <v>1181.483761245743</v>
@@ -4986,28 +4986,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1536.476317718205</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>1290.59687129666</v>
       </c>
       <c r="U10" t="n">
-        <v>1451.303983658873</v>
+        <v>1012.163870549765</v>
       </c>
       <c r="V10" t="n">
-        <v>1451.303983658873</v>
+        <v>725.2083624201957</v>
       </c>
       <c r="W10" t="n">
-        <v>1179.277579245164</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="X10" t="n">
-        <v>933.8858245785766</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="Y10" t="n">
-        <v>706.4661538926848</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>670.4887227422939</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="C11" t="n">
-        <v>670.4887227422939</v>
+        <v>646.762503068529</v>
       </c>
       <c r="D11" t="n">
-        <v>241.9070484795623</v>
+        <v>646.762503068529</v>
       </c>
       <c r="E11" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F11" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G11" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H11" t="n">
         <v>33.94366860160834</v>
@@ -5044,22 +5044,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K11" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L11" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M11" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N11" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O11" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P11" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q11" t="n">
         <v>1528.02936532736</v>
@@ -5080,13 +5080,13 @@
         <v>1075.344177331261</v>
       </c>
       <c r="W11" t="n">
-        <v>670.4887227422939</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="X11" t="n">
-        <v>670.4887227422939</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="Y11" t="n">
-        <v>670.4887227422939</v>
+        <v>1075.344177331261</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K12" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M12" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N12" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O12" t="n">
         <v>1159.957753041174</v>
       </c>
       <c r="P12" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q12" t="n">
         <v>1580.010651986078</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>372.3833729168607</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C13" t="n">
-        <v>199.8216614000857</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D13" t="n">
-        <v>33.94366860160834</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E13" t="n">
-        <v>33.94366860160834</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F13" t="n">
         <v>33.94366860160834</v>
@@ -5199,25 +5199,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J13" t="n">
-        <v>33.94366860160834</v>
+        <v>68.4625259617433</v>
       </c>
       <c r="K13" t="n">
-        <v>33.94366860160834</v>
+        <v>343.2209805328789</v>
       </c>
       <c r="L13" t="n">
-        <v>437.4083829648294</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M13" t="n">
-        <v>857.4612819097326</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N13" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O13" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q13" t="n">
         <v>1697.183430080417</v>
@@ -5226,25 +5226,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S13" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T13" t="n">
-        <v>1451.303983658873</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U13" t="n">
-        <v>1451.303983658873</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="V13" t="n">
-        <v>1309.039821402036</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="W13" t="n">
-        <v>1037.013416988327</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="X13" t="n">
-        <v>791.6216623217397</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y13" t="n">
-        <v>564.2019916358479</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>751.6554974211238</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="C14" t="n">
-        <v>751.6554974211238</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="D14" t="n">
-        <v>323.0738231583921</v>
+        <v>501.1293511625454</v>
       </c>
       <c r="E14" t="n">
-        <v>323.0738231583921</v>
+        <v>501.1293511625454</v>
       </c>
       <c r="F14" t="n">
-        <v>323.0738231583921</v>
+        <v>73.26192157175313</v>
       </c>
       <c r="G14" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H14" t="n">
         <v>33.94366860160834</v>
@@ -5278,28 +5278,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J14" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L14" t="n">
-        <v>33.94366860160834</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M14" t="n">
-        <v>33.94366860160834</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N14" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O14" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P14" t="n">
-        <v>1277.130531135514</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q14" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R14" t="n">
         <v>1697.183430080417</v>
@@ -5317,13 +5317,13 @@
         <v>1334.566480014244</v>
       </c>
       <c r="W14" t="n">
-        <v>1159.94162112147</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X14" t="n">
-        <v>1159.94162112147</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="Y14" t="n">
-        <v>751.6554974211238</v>
+        <v>929.7110254252771</v>
       </c>
     </row>
     <row r="15">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>646.930316449007</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="C16" t="n">
-        <v>474.368604932232</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="D16" t="n">
-        <v>308.4906121337547</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="E16" t="n">
-        <v>138.7326083844919</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="F16" t="n">
         <v>33.94366860160834</v>
@@ -5436,52 +5436,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K16" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L16" t="n">
-        <v>437.4083829648294</v>
+        <v>688.8848573262783</v>
       </c>
       <c r="M16" t="n">
-        <v>857.4612819097326</v>
+        <v>1108.937756271182</v>
       </c>
       <c r="N16" t="n">
-        <v>1277.514180854636</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="O16" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R16" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T16" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U16" t="n">
-        <v>1451.303983658873</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V16" t="n">
-        <v>1164.348475529303</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W16" t="n">
-        <v>892.3220711155946</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X16" t="n">
-        <v>646.930316449007</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y16" t="n">
-        <v>646.930316449007</v>
+        <v>187.8381257054811</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>462.2278875652606</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="C17" t="n">
-        <v>462.2278875652606</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="D17" t="n">
-        <v>462.2278875652606</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="E17" t="n">
-        <v>462.2278875652606</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="F17" t="n">
-        <v>34.36045797446834</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G17" t="n">
         <v>34.36045797446834</v>
@@ -5530,7 +5530,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="O17" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P17" t="n">
         <v>1107.976466382457</v>
@@ -5545,22 +5545,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T17" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U17" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V17" t="n">
-        <v>1694.511929275263</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W17" t="n">
-        <v>1289.656474686296</v>
+        <v>1072.260748364489</v>
       </c>
       <c r="X17" t="n">
-        <v>870.5140112656072</v>
+        <v>1072.260748364489</v>
       </c>
       <c r="Y17" t="n">
-        <v>462.2278875652606</v>
+        <v>862.0578598361122</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C18" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D18" t="n">
         <v>338.5686635760967</v>
@@ -5582,10 +5582,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F18" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G18" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H18" t="n">
         <v>33.94366860160834</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>210.6507226398521</v>
+        <v>777.3658326657497</v>
       </c>
       <c r="C19" t="n">
-        <v>210.6507226398521</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="D19" t="n">
-        <v>210.6507226398521</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="E19" t="n">
-        <v>210.6507226398521</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F19" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G19" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H19" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I19" t="n">
         <v>33.94366860160834</v>
@@ -5679,46 +5679,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L19" t="n">
-        <v>437.4083829648294</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M19" t="n">
-        <v>857.4612819097326</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="N19" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O19" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q19" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T19" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U19" t="n">
-        <v>1172.870982911978</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V19" t="n">
-        <v>885.9154747824084</v>
+        <v>1004.785503351641</v>
       </c>
       <c r="W19" t="n">
-        <v>613.8890703687</v>
+        <v>1004.785503351641</v>
       </c>
       <c r="X19" t="n">
-        <v>368.4973157021125</v>
+        <v>1004.785503351641</v>
       </c>
       <c r="Y19" t="n">
-        <v>210.6507226398521</v>
+        <v>777.3658326657497</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1697.183430080417</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C20" t="n">
-        <v>1319.391236090724</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D20" t="n">
-        <v>890.8095618279922</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E20" t="n">
-        <v>462.2278875652606</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F20" t="n">
-        <v>34.36045797446834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G20" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H20" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I20" t="n">
         <v>33.94366860160834</v>
@@ -5755,16 +5755,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L20" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M20" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N20" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O20" t="n">
         <v>687.9235674375537</v>
@@ -5779,25 +5779,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T20" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U20" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V20" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W20" t="n">
-        <v>1697.183430080417</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="X20" t="n">
-        <v>1697.183430080417</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="Y20" t="n">
-        <v>1697.183430080417</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D21" t="n">
         <v>338.5686635760967</v>
@@ -5819,10 +5819,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G21" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H21" t="n">
         <v>33.94366860160834</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>455.1116977300199</v>
+        <v>858.4638871896879</v>
       </c>
       <c r="C22" t="n">
-        <v>455.1116977300199</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="D22" t="n">
-        <v>455.1116977300199</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E22" t="n">
-        <v>285.3536939807572</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F22" t="n">
-        <v>108.6466399425134</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G22" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H22" t="n">
         <v>33.94366860160834</v>
@@ -5916,13 +5916,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L22" t="n">
-        <v>813.4916901053949</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M22" t="n">
-        <v>813.4916901053949</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N22" t="n">
-        <v>813.4916901053949</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O22" t="n">
         <v>1181.483761245743</v>
@@ -5934,28 +5934,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S22" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T22" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U22" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V22" t="n">
-        <v>1164.348475529303</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W22" t="n">
-        <v>892.3220711155946</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="X22" t="n">
-        <v>646.930316449007</v>
+        <v>1277.702176594567</v>
       </c>
       <c r="Y22" t="n">
-        <v>646.930316449007</v>
+        <v>1050.282505908675</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>743.9292024621484</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C23" t="n">
-        <v>743.9292024621484</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D23" t="n">
-        <v>743.9292024621484</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E23" t="n">
-        <v>743.9292024621484</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F23" t="n">
-        <v>743.9292024621484</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G23" t="n">
-        <v>342.5313710854123</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J23" t="n">
         <v>488.6559039815464</v>
@@ -6007,34 +6007,34 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P23" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R23" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S23" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T23" t="n">
-        <v>2366.341725488304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U23" t="n">
-        <v>2107.119422805321</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V23" t="n">
-        <v>1744.502472739147</v>
+        <v>2634.954471881715</v>
       </c>
       <c r="W23" t="n">
-        <v>1744.502472739147</v>
+        <v>2634.954471881715</v>
       </c>
       <c r="X23" t="n">
-        <v>1578.514896647403</v>
+        <v>2215.812008461025</v>
       </c>
       <c r="Y23" t="n">
-        <v>1170.228772947056</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="24">
@@ -6062,7 +6062,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I24" t="n">
         <v>79.46488968908616</v>
@@ -6071,19 +6071,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K24" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L24" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M24" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N24" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O24" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P24" t="n">
         <v>1058.729261281022</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C25" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D25" t="n">
-        <v>565.4575492903075</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E25" t="n">
-        <v>395.6995455410447</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F25" t="n">
-        <v>218.9924915028009</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G25" t="n">
-        <v>53.40121652862857</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J25" t="n">
         <v>139.9809016933184</v>
@@ -6174,25 +6174,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S25" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T25" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U25" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V25" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W25" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X25" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y25" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1075.159834655252</v>
+        <v>494.2049842445826</v>
       </c>
       <c r="C26" t="n">
-        <v>1075.159834655252</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="D26" t="n">
-        <v>743.9292024621484</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="E26" t="n">
-        <v>743.9292024621484</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="F26" t="n">
-        <v>743.9292024621484</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G26" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I26" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J26" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K26" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L26" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M26" t="n">
-        <v>1293.567921177998</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N26" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O26" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P26" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q26" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R26" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S26" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T26" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U26" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V26" t="n">
-        <v>2307.443876365255</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W26" t="n">
-        <v>1902.588421776288</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X26" t="n">
-        <v>1483.445958355599</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y26" t="n">
-        <v>1075.159834655252</v>
+        <v>920.5045547294905</v>
       </c>
     </row>
     <row r="27">
@@ -6299,13 +6299,13 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H27" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I27" t="n">
-        <v>73.33088177303142</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J27" t="n">
-        <v>397.8892067392438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K27" t="n">
         <v>1058.729261281022</v>
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1132.45937714051</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C28" t="n">
-        <v>959.897665623735</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D28" t="n">
-        <v>794.0196728252577</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E28" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F28" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G28" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H28" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I28" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J28" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K28" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L28" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M28" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N28" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O28" t="n">
         <v>2154.361157596754</v>
@@ -6411,25 +6411,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S28" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U28" t="n">
-        <v>2243.522190013252</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V28" t="n">
-        <v>1956.566681883682</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W28" t="n">
-        <v>1684.540277469974</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X28" t="n">
-        <v>1439.148522803386</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y28" t="n">
-        <v>1324.277995859497</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="29">
@@ -6439,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>744.3459918350084</v>
+        <v>1214.448588743694</v>
       </c>
       <c r="C29" t="n">
-        <v>744.3459918350084</v>
+        <v>776.3061159271172</v>
       </c>
       <c r="D29" t="n">
-        <v>744.3459918350084</v>
+        <v>776.3061159271172</v>
       </c>
       <c r="E29" t="n">
-        <v>744.3459918350084</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="F29" t="n">
-        <v>744.3459918350084</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G29" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H29" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I29" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J29" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K29" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L29" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M29" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N29" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O29" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P29" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q29" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R29" t="n">
         <v>2670.060826431428</v>
@@ -6493,22 +6493,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T29" t="n">
-        <v>2366.341725488304</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U29" t="n">
-        <v>2366.341725488304</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V29" t="n">
-        <v>2003.72477542213</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W29" t="n">
-        <v>1598.869320833164</v>
+        <v>1622.73471244404</v>
       </c>
       <c r="X29" t="n">
-        <v>1179.726857412474</v>
+        <v>1622.73471244404</v>
       </c>
       <c r="Y29" t="n">
-        <v>771.4407337121276</v>
+        <v>1214.448588743694</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H30" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I30" t="n">
         <v>79.46488968908616</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1132.45937714051</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C31" t="n">
-        <v>959.897665623735</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D31" t="n">
-        <v>794.0196728252577</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E31" t="n">
-        <v>624.2616690759949</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F31" t="n">
-        <v>447.554615037751</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G31" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H31" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I31" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J31" t="n">
         <v>139.9809016933184</v>
@@ -6645,28 +6645,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R31" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S31" t="n">
-        <v>2510.819457729425</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.94001130788</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U31" t="n">
-        <v>1986.507010560985</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V31" t="n">
-        <v>1699.551502431416</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W31" t="n">
-        <v>1427.525098017707</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X31" t="n">
-        <v>1182.13334335112</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y31" t="n">
-        <v>1182.13334335112</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1339.647018150181</v>
+        <v>1325.360009318457</v>
       </c>
       <c r="C32" t="n">
-        <v>901.504545333604</v>
+        <v>887.2175365018807</v>
       </c>
       <c r="D32" t="n">
-        <v>901.504545333604</v>
+        <v>887.2175365018807</v>
       </c>
       <c r="E32" t="n">
-        <v>901.504545333604</v>
+        <v>887.2175365018807</v>
       </c>
       <c r="F32" t="n">
-        <v>744.3459918350084</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G32" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H32" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I32" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J32" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K32" t="n">
-        <v>53.40121652862857</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L32" t="n">
-        <v>53.40121652862857</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M32" t="n">
-        <v>53.40121652862857</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N32" t="n">
-        <v>632.7278666362199</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O32" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P32" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q32" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R32" t="n">
         <v>2670.060826431428</v>
@@ -6730,22 +6730,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T32" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U32" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V32" t="n">
-        <v>1744.502472739147</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W32" t="n">
-        <v>1339.647018150181</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X32" t="n">
-        <v>1339.647018150181</v>
+        <v>1325.360009318457</v>
       </c>
       <c r="Y32" t="n">
-        <v>1339.647018150181</v>
+        <v>1325.360009318457</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H33" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I33" t="n">
         <v>79.46488968908616</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.9901093678603</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C34" t="n">
-        <v>628.4283978510853</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D34" t="n">
-        <v>628.4283978510853</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E34" t="n">
-        <v>458.6703941018225</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F34" t="n">
-        <v>281.9633400635787</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G34" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H34" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I34" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J34" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K34" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L34" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M34" t="n">
         <v>1292.433105213328</v>
@@ -6885,25 +6885,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S34" t="n">
-        <v>2548.914513151044</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T34" t="n">
-        <v>2303.035066729499</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U34" t="n">
-        <v>2024.602065982605</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V34" t="n">
-        <v>1737.646557853035</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W34" t="n">
-        <v>1465.620153439327</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X34" t="n">
-        <v>1220.228398772739</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y34" t="n">
-        <v>992.8087280868474</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>744.3459918350084</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="C35" t="n">
-        <v>744.3459918350084</v>
+        <v>901.5045453336031</v>
       </c>
       <c r="D35" t="n">
         <v>744.3459918350084</v>
@@ -6931,10 +6931,10 @@
         <v>342.9481604582723</v>
       </c>
       <c r="H35" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I35" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J35" t="n">
         <v>488.6559039815464</v>
@@ -6943,46 +6943,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L35" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M35" t="n">
-        <v>1149.495958523325</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="N35" t="n">
-        <v>1149.495958523325</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O35" t="n">
-        <v>1462.721985931055</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P35" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q35" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R35" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S35" t="n">
-        <v>2605.626393358386</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T35" t="n">
-        <v>2605.626393358386</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U35" t="n">
-        <v>2346.404090675403</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V35" t="n">
-        <v>1983.78714060923</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W35" t="n">
-        <v>1578.931686020263</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X35" t="n">
-        <v>1578.931686020263</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="Y35" t="n">
-        <v>1170.645562319916</v>
+        <v>1339.64701815018</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H36" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I36" t="n">
         <v>79.46488968908616</v>
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.4772326516127</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C37" t="n">
-        <v>568.9155211348376</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D37" t="n">
-        <v>403.0375283363603</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E37" t="n">
-        <v>233.2795245870976</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F37" t="n">
-        <v>56.57247054885377</v>
+        <v>193.303390838254</v>
       </c>
       <c r="G37" t="n">
-        <v>56.57247054885377</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I37" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J37" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K37" t="n">
-        <v>414.7393562644543</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L37" t="n">
-        <v>832.9492380324155</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M37" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N37" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O37" t="n">
         <v>2154.361157596754</v>
@@ -7122,25 +7122,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S37" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U37" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V37" t="n">
-        <v>1678.133681136788</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W37" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X37" t="n">
-        <v>1160.715522056492</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y37" t="n">
-        <v>933.2958513705998</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>917.0738856181116</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="C38" t="n">
-        <v>917.0738856181116</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D38" t="n">
-        <v>917.0738856181116</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E38" t="n">
-        <v>917.0738856181116</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F38" t="n">
-        <v>744.3459918350084</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G38" t="n">
-        <v>342.9481604582723</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H38" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I38" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J38" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7278666362199</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L38" t="n">
         <v>1293.567921177998</v>
@@ -7189,37 +7189,37 @@
         <v>1293.567921177998</v>
       </c>
       <c r="O38" t="n">
-        <v>1954.407975719777</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P38" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q38" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R38" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S38" t="n">
-        <v>2586.408952615265</v>
+        <v>2605.098122765485</v>
       </c>
       <c r="T38" t="n">
-        <v>2366.341725488304</v>
+        <v>2605.098122765485</v>
       </c>
       <c r="U38" t="n">
-        <v>2107.119422805321</v>
+        <v>2605.098122765485</v>
       </c>
       <c r="V38" t="n">
-        <v>1744.502472739147</v>
+        <v>2605.098122765485</v>
       </c>
       <c r="W38" t="n">
-        <v>1744.502472739147</v>
+        <v>2605.098122765485</v>
       </c>
       <c r="X38" t="n">
-        <v>1325.360009318458</v>
+        <v>2185.955659344796</v>
       </c>
       <c r="Y38" t="n">
-        <v>917.0738856181116</v>
+        <v>1777.669535644449</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H39" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I39" t="n">
         <v>79.46488968908616</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1132.45937714051</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C40" t="n">
-        <v>959.897665623735</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D40" t="n">
-        <v>794.0196728252577</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E40" t="n">
-        <v>624.2616690759949</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F40" t="n">
-        <v>447.554615037751</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G40" t="n">
-        <v>281.9633400635787</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="H40" t="n">
         <v>142.0611657539532</v>
       </c>
       <c r="I40" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J40" t="n">
-        <v>139.9809016933188</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K40" t="n">
-        <v>414.7393562644543</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L40" t="n">
-        <v>832.9492380324155</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M40" t="n">
         <v>1292.433105213328</v>
@@ -7359,25 +7359,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S40" t="n">
-        <v>2510.819457729425</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.94001130788</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U40" t="n">
-        <v>1986.507010560985</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V40" t="n">
-        <v>1699.551502431416</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W40" t="n">
-        <v>1427.525098017707</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X40" t="n">
-        <v>1427.525098017707</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y40" t="n">
-        <v>1324.277995859497</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1339.647018150181</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="C41" t="n">
-        <v>1339.647018150181</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="D41" t="n">
-        <v>1171.796632052941</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="E41" t="n">
-        <v>1171.796632052941</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="F41" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G41" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I41" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J41" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K41" t="n">
-        <v>801.8819313892767</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L41" t="n">
-        <v>801.8819313892767</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M41" t="n">
-        <v>801.8819313892767</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N41" t="n">
-        <v>801.8819313892767</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O41" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P41" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q41" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R41" t="n">
         <v>2670.060826431428</v>
@@ -7441,22 +7441,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T41" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U41" t="n">
-        <v>2107.119422805321</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V41" t="n">
-        <v>1744.502472739147</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W41" t="n">
-        <v>1339.647018150181</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X41" t="n">
-        <v>1339.647018150181</v>
+        <v>1152.632115535355</v>
       </c>
       <c r="Y41" t="n">
-        <v>1339.647018150181</v>
+        <v>744.3459918350084</v>
       </c>
     </row>
     <row r="42">
@@ -7484,7 +7484,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H42" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I42" t="n">
         <v>79.46488968908616</v>
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>900.7186013536161</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C43" t="n">
-        <v>900.7186013536161</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="D43" t="n">
-        <v>794.0196728252577</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="E43" t="n">
-        <v>624.2616690759949</v>
+        <v>571.7192289023494</v>
       </c>
       <c r="F43" t="n">
-        <v>447.554615037751</v>
+        <v>395.0121748641056</v>
       </c>
       <c r="G43" t="n">
-        <v>281.9633400635787</v>
+        <v>229.4208998899333</v>
       </c>
       <c r="H43" t="n">
-        <v>142.0611657539532</v>
+        <v>89.51872558030783</v>
       </c>
       <c r="I43" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J43" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K43" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L43" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M43" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N43" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O43" t="n">
         <v>2154.361157596754</v>
@@ -7596,25 +7596,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S43" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T43" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U43" t="n">
-        <v>2124.330557968361</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V43" t="n">
-        <v>1837.375049838791</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W43" t="n">
-        <v>1565.348645425083</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X43" t="n">
-        <v>1319.956890758495</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y43" t="n">
-        <v>1092.537220072603</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1011.477214236518</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="C44" t="n">
-        <v>573.3347414199409</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="D44" t="n">
-        <v>137.4249565943854</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="E44" t="n">
-        <v>53.40121652862857</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="F44" t="n">
-        <v>53.40121652862857</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G44" t="n">
-        <v>53.40121652862857</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J44" t="n">
         <v>488.6559039815464</v>
@@ -7654,46 +7654,46 @@
         <v>488.6559039815464</v>
       </c>
       <c r="L44" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M44" t="n">
-        <v>632.7278666362199</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N44" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O44" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P44" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R44" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S44" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T44" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U44" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V44" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W44" t="n">
-        <v>2265.205371842461</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X44" t="n">
-        <v>1846.062908421772</v>
+        <v>1152.215326162495</v>
       </c>
       <c r="Y44" t="n">
-        <v>1437.776784721425</v>
+        <v>743.9292024621484</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I45" t="n">
         <v>79.46488968908616</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>966.8681021663376</v>
+        <v>877.921435116708</v>
       </c>
       <c r="C46" t="n">
-        <v>794.3063906495626</v>
+        <v>705.359723599933</v>
       </c>
       <c r="D46" t="n">
-        <v>628.4283978510853</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E46" t="n">
-        <v>458.6703941018225</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F46" t="n">
-        <v>281.9633400635787</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G46" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H46" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J46" t="n">
         <v>139.9809016933184</v>
@@ -7818,7 +7818,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N46" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O46" t="n">
         <v>2154.361157596754</v>
@@ -7833,25 +7833,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S46" t="n">
-        <v>2510.819457729425</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T46" t="n">
         <v>2264.94001130788</v>
       </c>
       <c r="U46" t="n">
-        <v>1986.507010560985</v>
+        <v>2101.533391731452</v>
       </c>
       <c r="V46" t="n">
-        <v>1699.551502431416</v>
+        <v>1814.577883601883</v>
       </c>
       <c r="W46" t="n">
-        <v>1427.525098017707</v>
+        <v>1542.551479188174</v>
       </c>
       <c r="X46" t="n">
-        <v>1182.13334335112</v>
+        <v>1297.159724521587</v>
       </c>
       <c r="Y46" t="n">
-        <v>1158.686720885325</v>
+        <v>1069.740053835695</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,22 +8218,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -8297,22 +8297,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L6" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8379,7 +8379,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -8388,7 +8388,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8455,7 +8455,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8467,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8537,19 +8537,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8610,22 +8610,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>369.8475292559658</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8692,7 +8692,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P11" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8771,10 +8771,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9284720888815</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P12" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>34.86753268700501</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>407.5401155184051</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N16" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9178,10 +9178,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P17" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
         <v>424.2958575201044</v>
@@ -9327,22 +9327,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201044</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -9564,16 +9564,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>371.7091627680287</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9643,7 +9643,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9877,22 +9877,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O26" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.13097499434632</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -10114,7 +10114,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10123,13 +10123,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O29" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -10591,25 +10591,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>316.3899266744752</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10825,10 +10825,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -11062,7 +11062,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>316.3899266744751</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11071,19 +11071,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11302,19 +11302,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11463,10 +11463,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>374.2248590886009</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -22561,13 +22561,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>189.3873191296782</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.83779588133098</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -22752,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>157.8778176401777</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22789,13 +22789,13 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>137.8254589423614</v>
       </c>
       <c r="F5" t="n">
-        <v>109.1953615921506</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -22846,7 +22846,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -22944,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>33.0187249677744</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22956,10 +22956,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -22995,10 +22995,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>267.4418960144583</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>48.72940495548221</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -23041,7 +23041,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,19 +23074,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>2.63799004289541</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23181,16 +23181,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>37.93967370487044</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -23226,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>19.75255685807477</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23260,13 +23260,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D11" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>223.5532513141134</v>
+        <v>108.9852042822523</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -23275,7 +23275,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -23466,19 +23466,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>143.2444324140053</v>
+        <v>131.1670023117193</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>358.4587826225254</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>227.9282897392312</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23655,16 +23655,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>71.1989331128066</v>
+        <v>22.58447096502732</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23743,10 +23743,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -23785,22 +23785,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>356.3459947684091</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>196.1024028202499</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>20.88525564078003</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.8773468473951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>59.74677603861437</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>354.1250124085991</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>89.97942059693465</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>6.503994265594542</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>324.2354895612957</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>250.6233384556555</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>284.0167925399637</v>
       </c>
       <c r="D26" t="n">
-        <v>103.6323611061275</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -24457,13 +24457,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>15.21302026266358</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>395.2127803217107</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>62.39026249523016</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>140.7232059832936</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24928,7 +24928,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>268.0017873312746</v>
+        <v>281.7333045955494</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24979,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>58.91774794908473</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>275.9637190136911</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.02526633568946</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>135.3636110865067</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>135.3636110865063</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>252.5881404496121</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>18.50227844871772</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>44.28436272291246</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>122.9308428424049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,13 +25633,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>265.3788047410322</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>229.8062851978057</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>58.58727362741766</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>52.01701577190894</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>346.2534947281885</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>229.3936637186744</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>113.8761173587629</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>201.9333177378958</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355329.0741116018</v>
+        <v>355329.0741116017</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>499862.0597480322</v>
+        <v>499862.0597480321</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>499862.0597480322</v>
+        <v>499862.0597480321</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>499862.0597480322</v>
+        <v>499862.0597480321</v>
       </c>
     </row>
     <row r="16">
@@ -26334,28 +26334,28 @@
         <v>102171.9869277625</v>
       </c>
       <c r="I2" t="n">
-        <v>143731.2720946098</v>
+        <v>143731.2720946097</v>
       </c>
       <c r="J2" t="n">
         <v>143731.2720946097</v>
       </c>
       <c r="K2" t="n">
-        <v>143731.2720946098</v>
+        <v>143731.2720946097</v>
       </c>
       <c r="L2" t="n">
-        <v>143731.2720946098</v>
+        <v>143731.2720946097</v>
       </c>
       <c r="M2" t="n">
-        <v>143731.2720946098</v>
+        <v>143731.2720946097</v>
       </c>
       <c r="N2" t="n">
-        <v>143731.2720946098</v>
+        <v>143731.2720946097</v>
       </c>
       <c r="O2" t="n">
-        <v>143731.2720946098</v>
+        <v>143731.2720946097</v>
       </c>
       <c r="P2" t="n">
-        <v>143731.2720946098</v>
+        <v>143731.2720946097</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>64677.13252876429</v>
+        <v>64677.13252876426</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37160.80836782806</v>
+        <v>37160.80836782805</v>
       </c>
       <c r="C4" t="n">
         <v>37160.80836782805</v>
       </c>
       <c r="D4" t="n">
-        <v>37160.80836782805</v>
+        <v>37160.80836782806</v>
       </c>
       <c r="E4" t="n">
         <v>37160.80836782805</v>
       </c>
       <c r="F4" t="n">
-        <v>37160.80836782806</v>
+        <v>37160.80836782805</v>
       </c>
       <c r="G4" t="n">
         <v>37160.80836782805</v>
@@ -26441,25 +26441,25 @@
         <v>52276.26886172088</v>
       </c>
       <c r="J4" t="n">
-        <v>52276.26886172089</v>
+        <v>52276.26886172088</v>
       </c>
       <c r="K4" t="n">
         <v>52276.26886172088</v>
       </c>
       <c r="L4" t="n">
+        <v>52276.26886172088</v>
+      </c>
+      <c r="M4" t="n">
         <v>52276.26886172089</v>
       </c>
-      <c r="M4" t="n">
-        <v>52276.2688617209</v>
-      </c>
       <c r="N4" t="n">
-        <v>52276.26886172089</v>
+        <v>52276.26886172088</v>
       </c>
       <c r="O4" t="n">
-        <v>52276.2688617209</v>
+        <v>52276.26886172088</v>
       </c>
       <c r="P4" t="n">
-        <v>52276.2688617209</v>
+        <v>52276.26886172088</v>
       </c>
     </row>
     <row r="5">
@@ -26490,28 +26490,28 @@
         <v>25797.18813722234</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="J5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="K5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="L5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="M5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="N5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="O5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.92456175771</v>
+        <v>40584.9245617577</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136604.9102369979</v>
+        <v>-137344.2668489135</v>
       </c>
       <c r="C6" t="n">
-        <v>5586.390422712102</v>
+        <v>4847.033810796449</v>
       </c>
       <c r="D6" t="n">
-        <v>5586.390422712117</v>
+        <v>4847.033810796441</v>
       </c>
       <c r="E6" t="n">
-        <v>39213.99042271212</v>
+        <v>38474.63381079645</v>
       </c>
       <c r="F6" t="n">
-        <v>39213.99042271211</v>
+        <v>38474.63381079646</v>
       </c>
       <c r="G6" t="n">
-        <v>39213.9904227121</v>
+        <v>38474.63381079646</v>
       </c>
       <c r="H6" t="n">
-        <v>39213.9904227121</v>
+        <v>38474.63381079646</v>
       </c>
       <c r="I6" t="n">
-        <v>-13807.05385763311</v>
+        <v>-14301.94408621436</v>
       </c>
       <c r="J6" t="n">
-        <v>-60144.38667385903</v>
+        <v>-60639.27690244031</v>
       </c>
       <c r="K6" t="n">
-        <v>50870.07867113117</v>
+        <v>50375.1884425499</v>
       </c>
       <c r="L6" t="n">
-        <v>50870.07867113117</v>
+        <v>50375.18844254989</v>
       </c>
       <c r="M6" t="n">
-        <v>50870.07867113117</v>
+        <v>50375.18844254989</v>
       </c>
       <c r="N6" t="n">
-        <v>50870.07867113117</v>
+        <v>50375.18844254989</v>
       </c>
       <c r="O6" t="n">
-        <v>50870.07867113117</v>
+        <v>50375.1884425499</v>
       </c>
       <c r="P6" t="n">
-        <v>50870.07867113117</v>
+        <v>50375.18844254987</v>
       </c>
     </row>
   </sheetData>
@@ -26810,28 +26810,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="I4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>243.2193490877527</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -35017,22 +35017,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L6" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35099,7 +35099,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -35108,7 +35108,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35175,7 +35175,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35257,19 +35257,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35330,22 +35330,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>369.8475292559658</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -35412,7 +35412,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35424,13 +35424,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P11" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697544</v>
@@ -35491,10 +35491,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9284720888815</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P12" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>34.86753268700501</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>407.5401155184051</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N16" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35898,10 +35898,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P17" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
         <v>424.2958575201044</v>
@@ -36047,22 +36047,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201044</v>
+        <v>312.7888501519116</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -36284,16 +36284,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>371.7091627680287</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -36363,7 +36363,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L23" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36597,22 +36597,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O26" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>145.5272350047208</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
       <c r="P26" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.13097499434632</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>667.5152066078571</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36761,13 +36761,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36834,7 +36834,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36843,13 +36843,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O29" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P29" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37235,13 +37235,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37311,25 +37311,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>316.3899266744752</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37545,10 +37545,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>145.5272350047206</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L38" t="n">
-        <v>667.5152066078571</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908102</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37709,13 +37709,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37782,7 +37782,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>316.3899266744751</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37791,19 +37791,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O41" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P41" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37946,13 +37946,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38022,19 +38022,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O44" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P44" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38183,10 +38183,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512943</v>
